--- a/static/documentos/RED FAMILIA.xlsx
+++ b/static/documentos/RED FAMILIA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ANDES 2016\Formacion\Interventoria\MATRICES\FORMATOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SISTEMAS\Documents\PycharmProjects\sican\static\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="RED Familia" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RED Familia'!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RED Familia'!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Región</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>SISTEMA DE CARGUE</t>
   </si>
 </sst>
 </file>
@@ -87,7 +90,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="[$-240A]General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,8 +185,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +244,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,7 +355,7 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -380,6 +395,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -795,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.625" defaultRowHeight="12.75"/>
@@ -813,17 +831,18 @@
     <col min="8" max="8" width="17.25" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.625" style="9" customWidth="1"/>
     <col min="10" max="10" width="19.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="19.875" style="10" customWidth="1"/>
-    <col min="13" max="13" width="11.625" style="9"/>
-    <col min="14" max="14" width="12" style="9" customWidth="1"/>
-    <col min="15" max="15" width="11.25" style="9" customWidth="1"/>
-    <col min="16" max="16" width="10.375" style="9" customWidth="1"/>
-    <col min="17" max="17" width="18" style="9" customWidth="1"/>
-    <col min="18" max="18" width="13.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="11.625" style="9"/>
+    <col min="11" max="11" width="19.125" style="10" customWidth="1"/>
+    <col min="12" max="13" width="19.875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="9"/>
+    <col min="15" max="15" width="12" style="9" customWidth="1"/>
+    <col min="16" max="16" width="11.25" style="9" customWidth="1"/>
+    <col min="17" max="17" width="10.375" style="9" customWidth="1"/>
+    <col min="18" max="18" width="18" style="9" customWidth="1"/>
+    <col min="19" max="19" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="46.5" customHeight="1">
+    <row r="1" spans="1:18" ht="46.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -854,30 +873,33 @@
       <c r="J1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1048576">
+  <conditionalFormatting sqref="J1:K1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/documentos/RED FAMILIA.xlsx
+++ b/static/documentos/RED FAMILIA.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -458,7 +458,17 @@
     <cellStyle name="Porcentual 8" xfId="43"/>
     <cellStyle name="Porcentual 9" xfId="44"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -899,8 +909,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:K1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="J1:K1 J2:J1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
